--- a/CleanData/EvaluationNPUAone.xlsx
+++ b/CleanData/EvaluationNPUAone.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20920" windowHeight="14280" tabRatio="989" activeTab="5"/>
+    <workbookView xWindow="-41180" yWindow="4220" windowWidth="20920" windowHeight="14280" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PreQOld" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="38">
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Unuversity Year</t>
-  </si>
-  <si>
-    <t>Faculty</t>
-  </si>
-  <si>
-    <t>Average School  Math.</t>
-  </si>
-  <si>
-    <t>Average Univer. Math.</t>
-  </si>
-  <si>
-    <t>Compare with classmates</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="38">
   <si>
     <t>N1</t>
   </si>
@@ -151,12 +130,33 @@
   <si>
     <t>Faculty of Appiied Mathematics and Physics</t>
   </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>university year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faculty   </t>
+  </si>
+  <si>
+    <t>asm</t>
+  </si>
+  <si>
+    <t>aum</t>
+  </si>
+  <si>
+    <t>cwc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -178,6 +178,22 @@
       <name val="Sylfean"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,10 +212,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
@@ -220,8 +238,13 @@
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,114 +546,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D15"/>
+    <sheetView topLeftCell="AB1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:42" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="4">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
@@ -651,8 +674,8 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -742,7 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -752,8 +775,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
+      <c r="D3" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -843,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -853,8 +876,8 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -944,7 +967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -954,8 +977,8 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>37</v>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1045,7 +1068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1055,8 +1078,8 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>37</v>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -1146,7 +1169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1156,8 +1179,8 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -1247,7 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1257,8 +1280,8 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -1348,7 +1371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1358,8 +1381,8 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
+      <c r="D9" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1449,7 +1472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1459,8 +1482,8 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1550,7 +1573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1560,8 +1583,8 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -1651,7 +1674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="102" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1661,8 +1684,8 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -1752,7 +1775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="102" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1762,8 +1785,8 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>37</v>
+      <c r="D13" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -1853,7 +1876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1863,8 +1886,8 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>37</v>
+      <c r="D14" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -1954,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1964,8 +1987,8 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>37</v>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -2155,114 +2178,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
@@ -3586,21 +3609,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C29"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3925,114 +3948,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D45"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:42" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
@@ -6492,114 +6515,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D29"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
@@ -6616,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -6717,7 +6740,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -6818,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -6919,7 +6942,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -7020,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -7121,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -7222,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -7323,7 +7346,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -7424,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -7525,7 +7548,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -7626,7 +7649,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -7727,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -7828,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -7929,7 +7952,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -8030,7 +8053,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -8131,7 +8154,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>9</v>
@@ -8232,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -8333,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>9</v>
@@ -8434,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -8535,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -8636,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>9</v>
@@ -8737,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>8</v>
@@ -8838,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>9</v>
@@ -8939,7 +8962,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -9040,7 +9063,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>9</v>
@@ -9141,7 +9164,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -9242,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -9343,7 +9366,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -9491,7 +9514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C30"/>
     </sheetView>
   </sheetViews>
@@ -9499,13 +9522,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
